--- a/docs/topic2_results.xlsx
+++ b/docs/topic2_results.xlsx
@@ -425,10 +425,10 @@
     <t>sont</t>
   </si>
   <si>
-    <t>Topics</t>
-  </si>
-  <si>
     <t>Terms</t>
+  </si>
+  <si>
+    <t>Topic Slice 2</t>
   </si>
 </sst>
 </file>
@@ -444,15 +444,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -521,22 +521,22 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5194,12 +5194,12 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L12" sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -5213,11 +5213,11 @@
     <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -5229,399 +5229,399 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="8">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="8">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="8">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="8">
         <v>5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="8">
         <v>6</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="8">
         <v>7</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="8">
         <v>8</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="8">
         <v>9</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4">
+    <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4">
+    <row r="6" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4">
+    <row r="7" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4">
+    <row r="8" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4">
+    <row r="9" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4">
+    <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="4">
+    <row r="11" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4">
+    <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>133</v>
       </c>
     </row>
